--- a/reports/616907.xlsx
+++ b/reports/616907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
   <si>
     <t>Placement#</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Campaign Report date</t>
   </si>
   <si>
-    <t>2018-08-16 to 2018-09-17</t>
+    <t>2018-08-16 to 2018-09-13</t>
   </si>
   <si>
     <t>Agency Name</t>
@@ -265,18 +265,6 @@
   </si>
   <si>
     <t>2018-09-13</t>
-  </si>
-  <si>
-    <t>2018-09-14</t>
-  </si>
-  <si>
-    <t>2018-09-15</t>
-  </si>
-  <si>
-    <t>2018-09-16</t>
-  </si>
-  <si>
-    <t>2018-09-17</t>
   </si>
   <si>
     <t>Standard Pre Roll Performance - Summary</t>
@@ -1449,13 +1437,13 @@
         <v>265487</v>
       </c>
       <c r="K10" s="3">
-        <v>122086</v>
+        <v>108727</v>
       </c>
       <c r="L10" s="3">
-        <v>0.4598567914813155</v>
+        <v>0.4095379434774584</v>
       </c>
       <c r="M10" s="3">
-        <v>27591.43654694528</v>
+        <v>24572.30248709696</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -1593,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T61"/>
+  <dimension ref="B1:T57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -1662,31 +1650,31 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -1729,27 +1717,27 @@
         <v>226.00000448</v>
       </c>
       <c r="E10" s="3">
-        <v>122086</v>
+        <v>108727</v>
       </c>
       <c r="F10" s="3">
-        <v>1762</v>
+        <v>1422</v>
       </c>
       <c r="G10" s="3">
-        <v>0.01443244925708107</v>
+        <v>0.01307862812364914</v>
       </c>
       <c r="H10" s="3">
-        <v>81065</v>
+        <v>71034</v>
       </c>
       <c r="I10" s="3">
-        <v>0.6639991481414741</v>
+        <v>0.6533243812484479</v>
       </c>
       <c r="J10" s="3">
-        <v>27591.43654694528</v>
+        <v>24572.30248709696</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="11">
         <f>sum(E10:E10)</f>
@@ -1778,28 +1766,28 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1836,27 +1824,27 @@
         <v>46</v>
       </c>
       <c r="D16" s="3">
-        <v>122086</v>
+        <v>108727</v>
       </c>
       <c r="E16" s="3">
-        <v>100550</v>
+        <v>88428</v>
       </c>
       <c r="F16" s="3">
-        <v>92542</v>
+        <v>81351</v>
       </c>
       <c r="G16" s="3">
-        <v>86921</v>
+        <v>76340</v>
       </c>
       <c r="H16" s="3">
-        <v>81065</v>
+        <v>71034</v>
       </c>
       <c r="I16" s="3">
-        <v>0.6639991481414741</v>
+        <v>0.6533243812484479</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="11">
         <f>sum(D16:D16)</f>
@@ -1885,12 +1873,12 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>35</v>
@@ -1925,7 +1913,7 @@
         <v>54</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1933,28 +1921,28 @@
         <v>39</v>
       </c>
       <c r="C22" s="2">
-        <v>57780</v>
+        <v>53775</v>
       </c>
       <c r="D22" s="3">
-        <v>1786</v>
+        <v>1685</v>
       </c>
       <c r="E22" s="3">
-        <v>22383</v>
+        <v>20636</v>
       </c>
       <c r="F22" s="3">
         <v>211</v>
       </c>
       <c r="G22" s="3">
-        <v>6808</v>
+        <v>6193</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>1403</v>
+        <v>1178</v>
       </c>
       <c r="J22" s="3">
-        <v>1762</v>
+        <v>1422</v>
       </c>
       <c r="K22" s="3">
         <f>sum(C22:J22)</f>
@@ -1963,7 +1951,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="16">
         <f>sum(C22:C22)</f>
@@ -2004,15 +1992,15 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>34</v>
@@ -2789,166 +2777,62 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="3">
-        <v>3803</v>
-      </c>
-      <c r="E56" s="3">
-        <v>135</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.03549829082303445</v>
-      </c>
-      <c r="G56" s="3">
-        <v>2848</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.7488824612148304</v>
-      </c>
-      <c r="I56" s="3">
-        <v>859.4780170374398</v>
+        <v>32</v>
+      </c>
+      <c r="D56" s="11">
+        <f>sum(D27:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <f>sum(E27:E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <f>IFERROR((E56/D56),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <f>sum(G27:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <f>IFERROR((G56/D56),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <f>sum(I27:I55)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="3">
-        <v>2526</v>
-      </c>
-      <c r="E57" s="3">
-        <v>57</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0.02256532066508313</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1909</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0.7557403008709422</v>
-      </c>
-      <c r="I57" s="3">
-        <v>570.8760113164799</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="C57" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="3">
-        <v>3004</v>
-      </c>
-      <c r="E58" s="3">
-        <v>91</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.03029294274300932</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2240</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0.7456724367509987</v>
-      </c>
-      <c r="I58" s="3">
-        <v>678.90401345792</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="3">
-        <v>4026</v>
-      </c>
-      <c r="E59" s="3">
-        <v>57</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.01415797317436662</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3034</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0.7536015896671634</v>
-      </c>
-      <c r="I59" s="3">
-        <v>909.8760180364799</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="11">
-        <f>sum(D27:D59)</f>
+      <c r="D57" s="10">
+        <f>SUMIF(B27:B56,"Subtotal",D27:D56)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="11">
-        <f>sum(E27:E59)</f>
+      <c r="E57" s="10">
+        <f>SUMIF(B27:B56,"Subtotal",E27:E56)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="12">
-        <f>IFERROR((E60/D60),0)</f>
+      <c r="F57" s="18">
+        <f>IFERROR((E57/D57),0)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="11">
-        <f>sum(G27:G59)</f>
+      <c r="G57" s="10">
+        <f>SUMIF(B27:B56,"Subtotal",G27:G56)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="12">
-        <f>IFERROR((G60/D60),0)</f>
+      <c r="H57" s="18">
+        <f>IFERROR((G57/D57),0)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="13">
-        <f>sum(I27:I59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="10">
-        <f>SUMIF(B27:B60,"Subtotal",D27:D60)</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="10">
-        <f>SUMIF(B27:B60,"Subtotal",E27:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="18">
-        <f>IFERROR((E61/D61),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <f>SUMIF(B27:B60,"Subtotal",G27:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="18">
-        <f>IFERROR((G61/D61),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="19">
-        <f>SUMIF(B27:B60,"Subtotal",I27:I60)</f>
+      <c r="I57" s="19">
+        <f>SUMIF(B27:B56,"Subtotal",I27:I56)</f>
         <v>0</v>
       </c>
     </row>
@@ -3115,7 +2999,7 @@
       <formula>LEN(TRIM(D25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E62">
+  <conditionalFormatting sqref="D27:E58">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(D27))&gt;0</formula>
     </cfRule>
@@ -3266,7 +3150,7 @@
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F62">
+  <conditionalFormatting sqref="F27:F58">
     <cfRule type="notContainsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(F27))&gt;0</formula>
     </cfRule>
@@ -3344,7 +3228,7 @@
       <formula>LEN(TRIM(G25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G62">
+  <conditionalFormatting sqref="G27:G58">
     <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(G27))&gt;0</formula>
     </cfRule>
@@ -3422,7 +3306,7 @@
       <formula>LEN(TRIM(H25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H62">
+  <conditionalFormatting sqref="H27:H58">
     <cfRule type="notContainsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(H27))&gt;0</formula>
     </cfRule>
@@ -3500,7 +3384,7 @@
       <formula>LEN(TRIM(I25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I62">
+  <conditionalFormatting sqref="I27:I58">
     <cfRule type="notContainsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(I27))&gt;0</formula>
     </cfRule>
@@ -3601,97 +3485,97 @@
     <row r="1" spans="2:3" ht="5" customHeight="1"/>
     <row r="5" spans="2:3" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="B5" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -3699,7 +3583,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -3707,7 +3591,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -3715,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -3723,7 +3607,7 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3731,23 +3615,23 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -3755,7 +3639,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3763,7 +3647,7 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -3771,7 +3655,7 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -3779,7 +3663,7 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -3787,7 +3671,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3795,7 +3679,7 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -3803,57 +3687,57 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="B36" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -3861,7 +3745,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3869,7 +3753,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -3877,7 +3761,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -3885,7 +3769,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -3893,105 +3777,105 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B55" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="B56" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B57" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -3999,7 +3883,7 @@
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -4007,7 +3891,7 @@
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -4015,7 +3899,7 @@
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -4023,7 +3907,7 @@
         <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -4031,108 +3915,108 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B75" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B76" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/reports/616907.xlsx
+++ b/reports/616907.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
   <si>
     <t>Placement#</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Campaign Report date</t>
   </si>
   <si>
-    <t>2018-08-16 to 2018-09-13</t>
+    <t>2018-09-01 to 2018-09-17</t>
   </si>
   <si>
     <t>Agency Name</t>
@@ -183,51 +183,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>2018-08-17</t>
-  </si>
-  <si>
-    <t>2018-08-18</t>
-  </si>
-  <si>
-    <t>2018-08-19</t>
-  </si>
-  <si>
-    <t>2018-08-20</t>
-  </si>
-  <si>
-    <t>2018-08-21</t>
-  </si>
-  <si>
-    <t>2018-08-22</t>
-  </si>
-  <si>
-    <t>2018-08-23</t>
-  </si>
-  <si>
-    <t>2018-08-24</t>
-  </si>
-  <si>
-    <t>2018-08-25</t>
-  </si>
-  <si>
-    <t>2018-08-26</t>
-  </si>
-  <si>
-    <t>2018-08-27</t>
-  </si>
-  <si>
-    <t>2018-08-28</t>
-  </si>
-  <si>
-    <t>2018-08-29</t>
-  </si>
-  <si>
-    <t>2018-08-30</t>
-  </si>
-  <si>
-    <t>2018-08-31</t>
-  </si>
-  <si>
     <t>2018-09-01</t>
   </si>
   <si>
@@ -265,6 +220,18 @@
   </si>
   <si>
     <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>2018-09-16</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
   </si>
   <si>
     <t>Standard Pre Roll Performance - Summary</t>
@@ -1437,13 +1404,13 @@
         <v>265487</v>
       </c>
       <c r="K10" s="3">
-        <v>108727</v>
+        <v>64879</v>
       </c>
       <c r="L10" s="3">
-        <v>0.4095379434774584</v>
+        <v>0.244377314143442</v>
       </c>
       <c r="M10" s="3">
-        <v>24572.30248709696</v>
+        <v>14662.65429065792</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -1581,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T57"/>
+  <dimension ref="B1:T45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -1650,31 +1617,31 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -1717,27 +1684,27 @@
         <v>226.00000448</v>
       </c>
       <c r="E10" s="3">
-        <v>108727</v>
+        <v>64879</v>
       </c>
       <c r="F10" s="3">
-        <v>1422</v>
+        <v>1238</v>
       </c>
       <c r="G10" s="3">
-        <v>0.01307862812364914</v>
+        <v>0.01908167511829714</v>
       </c>
       <c r="H10" s="3">
-        <v>71034</v>
+        <v>41028</v>
       </c>
       <c r="I10" s="3">
-        <v>0.6533243812484479</v>
+        <v>0.6323771944697052</v>
       </c>
       <c r="J10" s="3">
-        <v>24572.30248709696</v>
+        <v>14662.65429065792</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E11" s="11">
         <f>sum(E10:E10)</f>
@@ -1766,28 +1733,28 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1824,27 +1791,27 @@
         <v>46</v>
       </c>
       <c r="D16" s="3">
-        <v>108727</v>
+        <v>64879</v>
       </c>
       <c r="E16" s="3">
-        <v>88428</v>
+        <v>50311</v>
       </c>
       <c r="F16" s="3">
-        <v>81351</v>
+        <v>46362</v>
       </c>
       <c r="G16" s="3">
-        <v>76340</v>
+        <v>43718</v>
       </c>
       <c r="H16" s="3">
-        <v>71034</v>
+        <v>41028</v>
       </c>
       <c r="I16" s="3">
-        <v>0.6533243812484479</v>
+        <v>0.6323771944697052</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D17" s="11">
         <f>sum(D16:D16)</f>
@@ -1873,12 +1840,12 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="C20" s="14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>35</v>
@@ -1913,7 +1880,7 @@
         <v>54</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1921,28 +1888,28 @@
         <v>39</v>
       </c>
       <c r="C22" s="2">
-        <v>53775</v>
+        <v>21021</v>
       </c>
       <c r="D22" s="3">
-        <v>1685</v>
+        <v>556</v>
       </c>
       <c r="E22" s="3">
-        <v>20636</v>
+        <v>15622</v>
       </c>
       <c r="F22" s="3">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>6193</v>
+        <v>4996</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>1178</v>
+        <v>796</v>
       </c>
       <c r="J22" s="3">
-        <v>1422</v>
+        <v>1238</v>
       </c>
       <c r="K22" s="3">
         <f>sum(C22:J22)</f>
@@ -1951,7 +1918,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" s="16">
         <f>sum(C22:C22)</f>
@@ -1992,15 +1959,15 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>34</v>
@@ -2026,25 +1993,25 @@
         <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3">
-        <v>112</v>
+        <v>2555</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F27" s="3">
-        <v>0.008928571428571428</v>
+        <v>0.01722113502935421</v>
       </c>
       <c r="G27" s="3">
-        <v>96</v>
+        <v>1356</v>
       </c>
       <c r="H27" s="3">
-        <v>0.8571428571428571</v>
+        <v>0.5307240704500978</v>
       </c>
       <c r="I27" s="3">
-        <v>25.31200050176</v>
+        <v>577.4300114463999</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2052,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3">
-        <v>417</v>
+        <v>3050</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3">
-        <v>0.01199040767386091</v>
+        <v>0.01114754098360656</v>
       </c>
       <c r="G28" s="3">
-        <v>347</v>
+        <v>1705</v>
       </c>
       <c r="H28" s="3">
-        <v>0.8321342925659473</v>
+        <v>0.559016393442623</v>
       </c>
       <c r="I28" s="3">
-        <v>94.24200186815999</v>
+        <v>689.3000136639998</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -2078,25 +2045,25 @@
         <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
-        <v>254</v>
+        <v>4351</v>
       </c>
       <c r="E29" s="3">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F29" s="3">
-        <v>0.04724409448818898</v>
+        <v>0.021374396690416</v>
       </c>
       <c r="G29" s="3">
-        <v>202</v>
+        <v>2540</v>
       </c>
       <c r="H29" s="3">
-        <v>0.7952755905511811</v>
+        <v>0.5837738450930821</v>
       </c>
       <c r="I29" s="3">
-        <v>57.40400113791999</v>
+        <v>983.3260194924799</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2104,25 +2071,25 @@
         <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3">
-        <v>250</v>
+        <v>4287</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="F30" s="3">
-        <v>0.008</v>
+        <v>0.02705854910193609</v>
       </c>
       <c r="G30" s="3">
-        <v>194</v>
+        <v>2297</v>
       </c>
       <c r="H30" s="3">
-        <v>0.776</v>
+        <v>0.5358059248891999</v>
       </c>
       <c r="I30" s="3">
-        <v>56.50000111999999</v>
+        <v>968.8620192057599</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2130,25 +2097,25 @@
         <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3">
-        <v>318</v>
+        <v>4736</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3">
-        <v>0.009433962264150943</v>
+        <v>0.01689189189189189</v>
       </c>
       <c r="G31" s="3">
-        <v>273</v>
+        <v>2664</v>
       </c>
       <c r="H31" s="3">
-        <v>0.8584905660377359</v>
+        <v>0.5625</v>
       </c>
       <c r="I31" s="3">
-        <v>71.86800142464</v>
+        <v>1070.33602121728</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2156,25 +2123,25 @@
         <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3">
-        <v>4075</v>
+        <v>4747</v>
       </c>
       <c r="E32" s="3">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3">
-        <v>0.01496932515337423</v>
+        <v>0.006951759005687803</v>
       </c>
       <c r="G32" s="3">
-        <v>3023</v>
+        <v>2586</v>
       </c>
       <c r="H32" s="3">
-        <v>0.741840490797546</v>
+        <v>0.5447651148093533</v>
       </c>
       <c r="I32" s="3">
-        <v>920.9500182559999</v>
+        <v>1072.82202126656</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2182,25 +2149,25 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3">
-        <v>4436</v>
+        <v>3935</v>
       </c>
       <c r="E33" s="3">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F33" s="3">
-        <v>0.010595130748422</v>
+        <v>0.007115628970775095</v>
       </c>
       <c r="G33" s="3">
-        <v>3185</v>
+        <v>2317</v>
       </c>
       <c r="H33" s="3">
-        <v>0.7179891794409378</v>
+        <v>0.5888182973316392</v>
       </c>
       <c r="I33" s="3">
-        <v>1002.53601987328</v>
+        <v>889.3100176287999</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2208,25 +2175,25 @@
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="3">
-        <v>5670</v>
+        <v>2578</v>
       </c>
       <c r="E34" s="3">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F34" s="3">
-        <v>0.007760141093474427</v>
+        <v>0.007370054305663305</v>
       </c>
       <c r="G34" s="3">
-        <v>4130</v>
+        <v>1774</v>
       </c>
       <c r="H34" s="3">
-        <v>0.7283950617283951</v>
+        <v>0.6881303335919318</v>
       </c>
       <c r="I34" s="3">
-        <v>1281.4200254016</v>
+        <v>582.6280115494399</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2234,25 +2201,25 @@
         <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3">
-        <v>5722</v>
+        <v>3070</v>
       </c>
       <c r="E35" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3">
-        <v>0.006990562740300594</v>
+        <v>0.008143322475570033</v>
       </c>
       <c r="G35" s="3">
-        <v>3938</v>
+        <v>2046</v>
       </c>
       <c r="H35" s="3">
-        <v>0.6882209017825935</v>
+        <v>0.6664495114006515</v>
       </c>
       <c r="I35" s="3">
-        <v>1293.17202563456</v>
+        <v>693.8200137535998</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2260,25 +2227,25 @@
         <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3">
-        <v>5947</v>
+        <v>4762</v>
       </c>
       <c r="E36" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F36" s="3">
-        <v>0.01059357659324029</v>
+        <v>0.01364972700545989</v>
       </c>
       <c r="G36" s="3">
-        <v>4299</v>
+        <v>2750</v>
       </c>
       <c r="H36" s="3">
-        <v>0.7228854884815874</v>
+        <v>0.5774884502309954</v>
       </c>
       <c r="I36" s="3">
-        <v>1344.02202664256</v>
+        <v>1076.21202133376</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2286,25 +2253,25 @@
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="3">
-        <v>5751</v>
+        <v>4848</v>
       </c>
       <c r="E37" s="3">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F37" s="3">
-        <v>0.01008520257346548</v>
+        <v>0.01402640264026403</v>
       </c>
       <c r="G37" s="3">
-        <v>4047</v>
+        <v>2603</v>
       </c>
       <c r="H37" s="3">
-        <v>0.7037037037037037</v>
+        <v>0.5369224422442245</v>
       </c>
       <c r="I37" s="3">
-        <v>1299.72602576448</v>
+        <v>1095.64802171904</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2312,25 +2279,25 @@
         <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D38" s="3">
-        <v>6345</v>
+        <v>4362</v>
       </c>
       <c r="E38" s="3">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="F38" s="3">
-        <v>0.006619385342789598</v>
+        <v>0.03049060064190738</v>
       </c>
       <c r="G38" s="3">
-        <v>4154</v>
+        <v>3146</v>
       </c>
       <c r="H38" s="3">
-        <v>0.6546887312844759</v>
+        <v>0.7212287941311325</v>
       </c>
       <c r="I38" s="3">
-        <v>1433.9700284256</v>
+        <v>985.8120195417599</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2338,25 +2305,25 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3">
-        <v>6134</v>
+        <v>4239</v>
       </c>
       <c r="E39" s="3">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="F39" s="3">
-        <v>0.006358004564721226</v>
+        <v>0.0377447511205473</v>
       </c>
       <c r="G39" s="3">
-        <v>4085</v>
+        <v>3213</v>
       </c>
       <c r="H39" s="3">
-        <v>0.665960221715031</v>
+        <v>0.7579617834394905</v>
       </c>
       <c r="I39" s="3">
-        <v>1386.28402748032</v>
+        <v>958.0140189907198</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2364,25 +2331,25 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="3">
-        <v>5751</v>
+        <v>3803</v>
       </c>
       <c r="E40" s="3">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F40" s="3">
-        <v>0.007998608937576073</v>
+        <v>0.03549829082303445</v>
       </c>
       <c r="G40" s="3">
-        <v>3844</v>
+        <v>2848</v>
       </c>
       <c r="H40" s="3">
-        <v>0.6684054946965745</v>
+        <v>0.7488824612148304</v>
       </c>
       <c r="I40" s="3">
-        <v>1299.72602576448</v>
+        <v>859.4780170374398</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2390,25 +2357,25 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3">
-        <v>2983</v>
+        <v>2526</v>
       </c>
       <c r="E41" s="3">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F41" s="3">
-        <v>0.009721756620851492</v>
+        <v>0.02256532066508313</v>
       </c>
       <c r="G41" s="3">
-        <v>2223</v>
+        <v>1909</v>
       </c>
       <c r="H41" s="3">
-        <v>0.7452229299363057</v>
+        <v>0.7557403008709422</v>
       </c>
       <c r="I41" s="3">
-        <v>674.1580133638399</v>
+        <v>570.8760113164799</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2416,25 +2383,25 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" s="3">
-        <v>3042</v>
+        <v>3004</v>
       </c>
       <c r="E42" s="3">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F42" s="3">
-        <v>0.01051939513477975</v>
+        <v>0.03029294274300932</v>
       </c>
       <c r="G42" s="3">
-        <v>1997</v>
+        <v>2240</v>
       </c>
       <c r="H42" s="3">
-        <v>0.6564760026298487</v>
+        <v>0.7456724367509987</v>
       </c>
       <c r="I42" s="3">
-        <v>687.4920136281598</v>
+        <v>678.90401345792</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2442,397 +2409,85 @@
         <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3">
-        <v>2555</v>
+        <v>4026</v>
       </c>
       <c r="E43" s="3">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F43" s="3">
-        <v>0.01722113502935421</v>
+        <v>0.01415797317436662</v>
       </c>
       <c r="G43" s="3">
-        <v>1356</v>
+        <v>3034</v>
       </c>
       <c r="H43" s="3">
-        <v>0.5307240704500978</v>
+        <v>0.7536015896671634</v>
       </c>
       <c r="I43" s="3">
-        <v>577.4300114463999</v>
+        <v>909.8760180364799</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="3">
-        <v>3050</v>
-      </c>
-      <c r="E44" s="3">
-        <v>34</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.01114754098360656</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1705</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.559016393442623</v>
-      </c>
-      <c r="I44" s="3">
-        <v>689.3000136639998</v>
+        <v>32</v>
+      </c>
+      <c r="D44" s="11">
+        <f>sum(D27:D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <f>sum(E27:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <f>IFERROR((E44/D44),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <f>sum(G27:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <f>IFERROR((G44/D44),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f>sum(I27:I43)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="3">
-        <v>4351</v>
-      </c>
-      <c r="E45" s="3">
-        <v>93</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.021374396690416</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2540</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.5837738450930821</v>
-      </c>
-      <c r="I45" s="3">
-        <v>983.3260194924799</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="3">
-        <v>4287</v>
-      </c>
-      <c r="E46" s="3">
-        <v>116</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.02705854910193609</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2297</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.5358059248891999</v>
-      </c>
-      <c r="I46" s="3">
-        <v>968.8620192057599</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="C45" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="3">
-        <v>4736</v>
-      </c>
-      <c r="E47" s="3">
-        <v>80</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.01689189189189189</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2664</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1070.33602121728</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="3">
-        <v>4747</v>
-      </c>
-      <c r="E48" s="3">
-        <v>33</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.006951759005687803</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2586</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.5447651148093533</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1072.82202126656</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="3">
-        <v>3935</v>
-      </c>
-      <c r="E49" s="3">
-        <v>28</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.007115628970775095</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2317</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0.5888182973316392</v>
-      </c>
-      <c r="I49" s="3">
-        <v>889.3100176287999</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2578</v>
-      </c>
-      <c r="E50" s="3">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.007370054305663305</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1774</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0.6881303335919318</v>
-      </c>
-      <c r="I50" s="3">
-        <v>582.6280115494399</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="3">
-        <v>3070</v>
-      </c>
-      <c r="E51" s="3">
-        <v>25</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.008143322475570033</v>
-      </c>
-      <c r="G51" s="3">
-        <v>2046</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0.6664495114006515</v>
-      </c>
-      <c r="I51" s="3">
-        <v>693.8200137535998</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="3">
-        <v>4762</v>
-      </c>
-      <c r="E52" s="3">
-        <v>65</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.01364972700545989</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2750</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0.5774884502309954</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1076.21202133376</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4848</v>
-      </c>
-      <c r="E53" s="3">
-        <v>68</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.01402640264026403</v>
-      </c>
-      <c r="G53" s="3">
-        <v>2603</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0.5369224422442245</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1095.64802171904</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="3">
-        <v>4362</v>
-      </c>
-      <c r="E54" s="3">
-        <v>133</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.03049060064190738</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3146</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0.7212287941311325</v>
-      </c>
-      <c r="I54" s="3">
-        <v>985.8120195417599</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="3">
-        <v>4239</v>
-      </c>
-      <c r="E55" s="3">
-        <v>160</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.0377447511205473</v>
-      </c>
-      <c r="G55" s="3">
-        <v>3213</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.7579617834394905</v>
-      </c>
-      <c r="I55" s="3">
-        <v>958.0140189907198</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="11">
-        <f>sum(D27:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <f>sum(E27:E55)</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="12">
-        <f>IFERROR((E56/D56),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <f>sum(G27:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="12">
-        <f>IFERROR((G56/D56),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
-        <f>sum(I27:I55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="10">
-        <f>SUMIF(B27:B56,"Subtotal",D27:D56)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <f>SUMIF(B27:B56,"Subtotal",E27:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="18">
-        <f>IFERROR((E57/D57),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="10">
-        <f>SUMIF(B27:B56,"Subtotal",G27:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="18">
-        <f>IFERROR((G57/D57),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="19">
-        <f>SUMIF(B27:B56,"Subtotal",I27:I56)</f>
+      <c r="D45" s="10">
+        <f>SUMIF(B27:B44,"Subtotal",D27:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <f>SUMIF(B27:B44,"Subtotal",E27:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
+        <f>IFERROR((E45/D45),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <f>SUMIF(B27:B44,"Subtotal",G27:G44)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <f>IFERROR((G45/D45),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="19">
+        <f>SUMIF(B27:B44,"Subtotal",I27:I44)</f>
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +2654,7 @@
       <formula>LEN(TRIM(D25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E58">
+  <conditionalFormatting sqref="D27:E46">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(D27))&gt;0</formula>
     </cfRule>
@@ -3150,7 +2805,7 @@
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F58">
+  <conditionalFormatting sqref="F27:F46">
     <cfRule type="notContainsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(F27))&gt;0</formula>
     </cfRule>
@@ -3228,7 +2883,7 @@
       <formula>LEN(TRIM(G25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G58">
+  <conditionalFormatting sqref="G27:G46">
     <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(G27))&gt;0</formula>
     </cfRule>
@@ -3306,7 +2961,7 @@
       <formula>LEN(TRIM(H25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H58">
+  <conditionalFormatting sqref="H27:H46">
     <cfRule type="notContainsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(H27))&gt;0</formula>
     </cfRule>
@@ -3384,7 +3039,7 @@
       <formula>LEN(TRIM(I25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I58">
+  <conditionalFormatting sqref="I27:I46">
     <cfRule type="notContainsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(I27))&gt;0</formula>
     </cfRule>
@@ -3485,97 +3140,97 @@
     <row r="1" spans="2:3" ht="5" customHeight="1"/>
     <row r="5" spans="2:3" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="B5" s="20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="22" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -3583,7 +3238,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -3591,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -3599,7 +3254,7 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -3607,7 +3262,7 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3615,23 +3270,23 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -3639,7 +3294,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -3647,7 +3302,7 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -3655,7 +3310,7 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -3663,7 +3318,7 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -3671,7 +3326,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3679,7 +3334,7 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -3687,57 +3342,57 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="B36" s="22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -3745,7 +3400,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3753,7 +3408,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -3761,7 +3416,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -3769,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -3777,105 +3432,105 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B55" s="21" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="22" customFormat="1" ht="16" customHeight="1">
       <c r="B56" s="22" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B57" s="21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -3883,7 +3538,7 @@
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -3891,7 +3546,7 @@
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -3899,7 +3554,7 @@
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -3907,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -3915,108 +3570,108 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B75" s="21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="2:3" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="B76" s="21" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
